--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -525,34 +525,34 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.021814</v>
+      </c>
+      <c r="H2">
+        <v>0.065442</v>
+      </c>
+      <c r="I2">
+        <v>0.1008129179549036</v>
+      </c>
+      <c r="J2">
+        <v>0.1008129179549036</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.318968333333333</v>
-      </c>
-      <c r="H2">
-        <v>3.956905</v>
-      </c>
-      <c r="I2">
-        <v>0.5693148475898785</v>
-      </c>
-      <c r="J2">
-        <v>0.5693148475898785</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>151.722402</v>
+        <v>0.009232000000000001</v>
       </c>
       <c r="N2">
-        <v>455.167206</v>
+        <v>0.027696</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>200.11704369527</v>
+        <v>0.000201386848</v>
       </c>
       <c r="R2">
-        <v>1801.05339325743</v>
+        <v>0.001812481632</v>
       </c>
       <c r="S2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="T2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,34 +587,34 @@
         <v>20</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.194567</v>
+      </c>
+      <c r="H3">
+        <v>0.583701</v>
+      </c>
+      <c r="I3">
+        <v>0.8991870820450963</v>
+      </c>
+      <c r="J3">
+        <v>0.8991870820450963</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.9977960000000001</v>
-      </c>
-      <c r="H3">
-        <v>2.993388</v>
-      </c>
-      <c r="I3">
-        <v>0.4306851524101215</v>
-      </c>
-      <c r="J3">
-        <v>0.4306851524101215</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>151.722402</v>
+        <v>0.009232000000000001</v>
       </c>
       <c r="N3">
-        <v>455.167206</v>
+        <v>0.027696</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>151.388005825992</v>
+        <v>0.001796242544</v>
       </c>
       <c r="R3">
-        <v>1362.492052433928</v>
+        <v>0.016166182896</v>
       </c>
       <c r="S3">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="T3">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
     </row>
   </sheetData>
